--- a/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_极光组.xlsx
+++ b/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_极光组.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -182,6 +182,26 @@
   </si>
   <si>
     <t>崔斌</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉、王云飞</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -565,6 +585,18 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="7" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,18 +607,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -944,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -960,7 +980,8 @@
     <col min="8" max="8" width="11.625" style="18" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="18" customWidth="1"/>
     <col min="10" max="10" width="23.875" style="17" customWidth="1"/>
-    <col min="11" max="12" width="11.875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="18"/>
     <col min="14" max="14" width="23" style="18" customWidth="1"/>
     <col min="15" max="15" width="9.625" style="18" customWidth="1"/>
@@ -1034,7 +1055,7 @@
       <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -1052,16 +1073,24 @@
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="26"/>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="42" t="s">
         <v>51</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="27">
+        <v>42583</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
@@ -1072,13 +1101,13 @@
       <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -1096,10 +1125,18 @@
       <c r="K3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="33"/>
+      <c r="L3" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="27">
+        <v>42583</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>53</v>
+      </c>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
@@ -1134,10 +1171,18 @@
       <c r="K4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="33"/>
+      <c r="L4" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="27">
+        <v>42583</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
@@ -6007,36 +6052,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
